--- a/web/projektarbeit/dummy_data-graph.xlsx
+++ b/web/projektarbeit/dummy_data-graph.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blatt 1 - Tabelle 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Tabelle 1</t>
   </si>
@@ -31,6 +31,9 @@
     <t>SPO_2</t>
   </si>
   <si>
+    <t>GES_Q2</t>
+  </si>
+  <si>
     <t>S_MAT_1</t>
   </si>
   <si>
@@ -43,10 +46,16 @@
     <t>S_MAT_7</t>
   </si>
   <si>
+    <t>S_MAT_Q2</t>
+  </si>
+  <si>
     <t>S_MAT_5</t>
   </si>
   <si>
     <t>S_MAT_9</t>
+  </si>
+  <si>
+    <t>S_DEU_Q2</t>
   </si>
   <si>
     <t>S_MAT_3</t>
@@ -243,7 +252,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -266,9 +275,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1375,254 +1381,260 @@
       <c r="F2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" t="s" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" t="s" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="7">
-        <v>6</v>
-      </c>
       <c r="E3" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="C4" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s" s="11">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/web/projektarbeit/dummy_data-graph.xlsx
+++ b/web/projektarbeit/dummy_data-graph.xlsx
@@ -5,87 +5,111 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt 1 - Tabelle 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blatt 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Tabelle 1</t>
   </si>
   <si>
-    <t>MAT_2</t>
-  </si>
-  <si>
-    <t>GES_2_3</t>
-  </si>
-  <si>
-    <t>geg_2_3</t>
-  </si>
-  <si>
-    <t>spa_1_2_3</t>
-  </si>
-  <si>
-    <t>SPO_2</t>
-  </si>
-  <si>
-    <t>GES_Q2</t>
-  </si>
-  <si>
-    <t>S_MAT_1</t>
-  </si>
-  <si>
-    <t>S_MAT_2</t>
-  </si>
-  <si>
-    <t>S_MAT_8</t>
-  </si>
-  <si>
-    <t>S_MAT_7</t>
-  </si>
-  <si>
-    <t>S_MAT_Q2</t>
-  </si>
-  <si>
-    <t>S_MAT_5</t>
-  </si>
-  <si>
-    <t>S_MAT_9</t>
-  </si>
-  <si>
-    <t>S_DEU_Q2</t>
-  </si>
-  <si>
-    <t>S_MAT_3</t>
-  </si>
-  <si>
-    <t>S_DEU_9</t>
-  </si>
-  <si>
-    <t>S_MAT_4</t>
-  </si>
-  <si>
-    <t>S_DEU_1</t>
-  </si>
-  <si>
-    <t>S_DEU_10</t>
-  </si>
-  <si>
-    <t>S_DEU_3</t>
-  </si>
-  <si>
-    <t>S_DEU_11</t>
-  </si>
-  <si>
-    <t>S_MAT_6</t>
-  </si>
-  <si>
-    <t>S_DEU_4</t>
-  </si>
-  <si>
-    <t>S_DEU_5</t>
+    <t>MAT226-E-0-2</t>
+  </si>
+  <si>
+    <t>geg826-Q1-2-4</t>
+  </si>
+  <si>
+    <t>bio526-Q2-4</t>
+  </si>
+  <si>
+    <t>eng526</t>
+  </si>
+  <si>
+    <t>inf726</t>
+  </si>
+  <si>
+    <t>GES726</t>
+  </si>
+  <si>
+    <t>ges626</t>
+  </si>
+  <si>
+    <t>ENG726</t>
+  </si>
+  <si>
+    <t>che726</t>
+  </si>
+  <si>
+    <t>phy726</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
   </si>
 </sst>
 </file>
@@ -252,7 +276,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -287,9 +311,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1341,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1349,8 +1370,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="11" width="16.3516" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1363,6 +1384,10 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="3"/>
@@ -1384,261 +1409,450 @@
       <c r="G2" t="s" s="4">
         <v>6</v>
       </c>
+      <c r="H2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" t="s" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="7">
         <v>11</v>
+      </c>
+      <c r="I3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" t="s" s="9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="F4" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>14</v>
+      <c r="H4" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" t="s" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="K5" t="s" s="10">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" t="s" s="9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="10">
         <v>18</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>19</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="10">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" t="s" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s" s="10">
         <v>21</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" t="s" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="E8" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>24</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s" s="10">
+        <v>25</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" t="s" s="9">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="10">
+        <v>15</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" t="s" s="9">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="10">
+        <v>19</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
+      <c r="B12" t="s" s="9">
+        <v>15</v>
+      </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s" s="10">
+        <v>16</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
+      <c r="B13" t="s" s="9">
+        <v>19</v>
+      </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" t="s" s="10">
+        <v>19</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="12"/>
+      <c r="B14" t="s" s="9">
+        <v>16</v>
+      </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="D14" t="s" s="10">
+        <v>16</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
+      <c r="B15" t="s" s="9">
+        <v>20</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="12"/>
+      <c r="B16" t="s" s="9">
+        <v>22</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="12"/>
+      <c r="B17" t="s" s="9">
+        <v>23</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="12"/>
+      <c r="B18" t="s" s="9">
+        <v>26</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="12"/>
+      <c r="B19" t="s" s="9">
+        <v>27</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="12"/>
+      <c r="B20" t="s" s="9">
+        <v>28</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="12"/>
+      <c r="B21" t="s" s="9">
+        <v>29</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="12"/>
+      <c r="B22" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="12"/>
+      <c r="B23" t="s" s="9">
+        <v>31</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
